--- a/videokheti/management/commands/Titles_Hindi.xlsx
+++ b/videokheti/management/commands/Titles_Hindi.xlsx
@@ -30,75 +30,53 @@
     <t>Choose the Crop</t>
   </si>
   <si>
-    <r>
-      <t>फसल को चुनिये</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Crop</t>
   </si>
   <si>
-    <t>Choose the Time of Year</t>
-  </si>
-  <si>
-    <r>
-      <t>साल के समय को चुनिये</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>TimeYear</t>
   </si>
   <si>
     <t>Choose the Action</t>
   </si>
   <si>
-    <t>क्रिया को चुनिये</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
     <t>Choose the Method</t>
   </si>
   <si>
-    <t>विधि को चुनिये</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
     <t>Choose the Video</t>
   </si>
   <si>
-    <t>वीडियो को चुनिये</t>
-  </si>
-  <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>फसल को चुने</t>
+  </si>
+  <si>
+    <t>Choose the Crop Phase</t>
+  </si>
+  <si>
+    <t>खेती के समय को चुने </t>
+  </si>
+  <si>
+    <t>क्रिया को चुने</t>
+  </si>
+  <si>
+    <t>विधि को चुने</t>
+  </si>
+  <si>
+    <t>वीडियो को चुने</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +95,6 @@
       <color rgb="FF000000"/>
       <name val="Mangal"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,7 +425,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,54 +451,54 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/videokheti/management/commands/Titles_Hindi.xlsx
+++ b/videokheti/management/commands/Titles_Hindi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -70,13 +70,31 @@
   </si>
   <si>
     <t>वीडियो को चुने</t>
+  </si>
+  <si>
+    <t>Video coming soon!</t>
+  </si>
+  <si>
+    <t>अभी इस विषया पर कोई वीडियो नहीं है. हम जल्द ही वीडियो लाने का प्रयास करेंगे.</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Digital Green provides access to videos, produced by and for the community, of best practices in agriculture. Navigate to the video by selecting relevant pictures and use the green audio icon to hear more on the option.</t>
+  </si>
+  <si>
+    <t>डिजिटल ग्रीन में आपका स्वागत है. हम आपको वीडियोस द्वारा कृषि संबंधित जानकारी देंगे. वीडियोस तक पहुँचने के लिए दिए गये चित्रों को चुने, और चित्रों के बारे में सुनने के लिए, हरे स्पीकर के चिन्ह को दबाए.</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +113,12 @@
       <color rgb="FF000000"/>
       <name val="Mangal"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,10 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +526,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
